--- a/SAM 구조 설명표.xlsx
+++ b/SAM 구조 설명표.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B4508-E055-6D49-8226-AAC674B8D075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36440" yWindow="-1200" windowWidth="28800" windowHeight="17500" xr2:uid="{CFCD93D5-7067-1246-87A3-13074A5D9D39}"/>
+    <workbookView xWindow="36435" yWindow="-1200" windowWidth="28800" windowHeight="17505"/>
   </bookViews>
   <sheets>
-    <sheet name="SAM 구조 설명표" sheetId="1" r:id="rId1"/>
+    <sheet name="SAM 구조 설명표 (거시)" sheetId="3" r:id="rId1"/>
+    <sheet name="SAM 구조 설명표" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="98">
   <si>
     <t>생산활동</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -402,6 +402,129 @@
   </si>
   <si>
     <t>(31) 수출
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4) 생산세
+[1X21]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5) 관세
+[1X21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6) 수입
+[1X21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8) 자본소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(9) 자본소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10) 민간
+소비
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(11) 가계저축
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(12) 소득세
+[1X21]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(13) 기업이전
+[1X1]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(14) 기업저축
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(15) 법인세
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(16) 정부
+소비
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(17) 정부저축
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(18) 물적
+투자
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(19) 정부부채
+[1X1]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(20) 무역수지
+[1X21]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(21) 간접세
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(22) 법인세
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(23) 소득세
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(24) 관세
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(25) 수출
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(26) 수출
 [1X1]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -409,11 +532,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,18 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,6 +691,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,55 +1021,628 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A78A32E-00BB-7640-A5AA-3221F7032CBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="16" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J38" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="13.85546875" customWidth="1"/>
+    <col min="1" max="18" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -989,39 +1688,39 @@
       <c r="Q2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" ht="57">
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="8" t="s">
         <v>73</v>
       </c>
       <c r="Q3" s="1"/>
@@ -1029,25 +1728,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="76">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1057,23 +1756,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="38">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1083,54 +1782,54 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="57">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="6" t="s">
         <v>62</v>
       </c>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="38">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1140,25 +1839,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="57">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1168,44 +1867,44 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="57">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="11" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="17"/>
+      <c r="P9" s="13"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="57">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1214,19 +1913,19 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1236,54 +1935,54 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="57">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="6" t="s">
         <v>61</v>
       </c>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="57">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1293,23 +1992,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="38">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1319,23 +2018,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="57">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1345,23 +2044,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="38">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1371,8 +2070,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="38">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1381,43 +2080,43 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="16" t="s">
+      <c r="Q16" s="12" t="s">
         <v>74</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="57">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:18" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1427,11 +2126,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="57">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:18" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1479,118 +2178,123 @@
       </c>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F31" s="3"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="6:12">
+    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="6:12">
+    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="6:12">
+    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="6:12">
+    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="6:12">
+    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="6:12">
+    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="6:12">
+    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F39" s="3"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="6:12">
+    <row r="40" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="L1:O1"/>
@@ -1599,13 +2303,9 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SAM 구조 설명표.xlsx
+++ b/SAM 구조 설명표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C29D3E2-8275-0544-9EE6-C325EE320835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36435" yWindow="-1200" windowWidth="28800" windowHeight="17505"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM 구조 설명표 (거시)" sheetId="3" r:id="rId1"/>
@@ -20,16 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -532,11 +523,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -650,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,9 +662,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1021,55 +1009,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="16" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="16" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
+    <row r="1" spans="1:16">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
+    <row r="2" spans="1:16">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1109,363 +1097,363 @@
       <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" ht="57">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="7"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:16" ht="57">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:16" ht="38">
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:16" ht="38">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:16" ht="38">
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:16" ht="57">
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="11" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:16" ht="57">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:16" ht="57">
+      <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:16" ht="38">
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:16" ht="57">
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="11" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:16" ht="38">
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:16" ht="38">
+      <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="12" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="11" t="s">
         <v>97</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:16" ht="57">
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="11" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:16" ht="57">
+      <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1507,70 +1495,70 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:10">
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:10">
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:10">
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:10">
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:10">
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:10">
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:10">
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:10">
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:10">
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:10">
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:10">
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:10">
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:10">
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:10">
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:10">
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:10">
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:10">
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:10">
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:10">
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:10">
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:10">
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:10">
       <c r="J38" s="3"/>
     </row>
   </sheetData>
@@ -1594,55 +1582,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection sqref="A1:R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="18" width="13.88671875" customWidth="1"/>
+    <col min="1" max="18" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
+    <row r="1" spans="1:19">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
+    <row r="2" spans="1:19">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1688,39 +1676,39 @@
       <c r="Q2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" ht="57">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q3" s="1"/>
@@ -1728,25 +1716,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:19" ht="57">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1756,23 +1744,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:19" ht="38">
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1782,54 +1770,54 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:19" ht="57">
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
       <c r="R6" s="6" t="s">
         <v>62</v>
       </c>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:19" ht="38">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1839,25 +1827,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:19" ht="38">
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1867,44 +1855,44 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:19" ht="57">
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="12"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:19" ht="57">
+      <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1913,19 +1901,19 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1935,54 +1923,54 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:19" ht="57">
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="6" t="s">
         <v>61</v>
       </c>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:19" ht="57">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1992,23 +1980,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:19" ht="38">
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2018,23 +2006,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:19" ht="57">
+      <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="10" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2044,23 +2032,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:19" ht="38">
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2070,8 +2058,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:19" ht="38">
+      <c r="A16" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2080,43 +2068,43 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="11" t="s">
         <v>74</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:18" ht="57">
+      <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2126,11 +2114,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:18" ht="57">
+      <c r="A18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
@@ -2178,123 +2166,118 @@
       </c>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="F19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="F20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="F21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="F22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="F23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="F24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="F25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="F26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="F27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="F28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="F29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="F30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="F31" s="3"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="F32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:12">
       <c r="F33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:12">
       <c r="F34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:12">
       <c r="F35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:12">
       <c r="F36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:12">
       <c r="F37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:12">
       <c r="F38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:12">
       <c r="F39" s="3"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:12">
       <c r="F40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="L1:O1"/>
@@ -2303,6 +2286,11 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SAM 구조 설명표.xlsx
+++ b/SAM 구조 설명표.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/공간정보프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C29D3E2-8275-0544-9EE6-C325EE320835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A06A989-7422-3B4D-BBD6-2339CC84DBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAM 구조 설명표 (거시)" sheetId="3" r:id="rId1"/>
     <sheet name="SAM 구조 설명표" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="141">
   <si>
     <t>생산활동</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,11 +203,6 @@
   <si>
     <t>정부소비+저축
 [1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1) 중간재
-[21X21]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -221,97 +217,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(5) 생산세
-[1X21]
-균형항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(6) 관세
-[1X21]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7) 수입
-[1X21]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(8) 임금소득
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(9) 자본소득
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(10) 자본소득
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(12) 민간
-소비
-[21X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(13) 가계저축
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(14) 소득세
-[1X21]
-균형항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(15) 기업이전
-[1X1]
-균형항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(16) 기업저축
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(18) 법인세
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(19) 정부
-소비
-[21X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(20) 정부저축
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SIT 자본</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SIT 고정자본형성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(11) SIT 소득
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(17) SIT투자
-재원
-[1X1]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -328,71 +238,6 @@
   <si>
     <t>SIT
 자본수익
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4) SIT
-자본수익
-[1X21]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(21) SIT투자
-재원
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(22) 물적
-투자
-[21X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(23) 정부부채
-[1X1]
-균형항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(24) 무역수지
-[1X21]
-균형항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(25) SIT투자
-[21X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(26) 간접세
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(27) 법인세
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(28) 소득세
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(29) 관세
-[1X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(30) 수출
-[21X1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(31) 수출
 [1X1]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -517,6 +362,371 @@
   <si>
     <t>(26) 수출
 [1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 국내 중간재
+[21X21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 피용자보수
+[1X21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저숙련 노동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고숙련 노동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가계 1분위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계 2분위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계 3분위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가계 4분위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계 5분위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계 1분위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계 4분위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) 피용자보수
+(총거래표)
+[1X21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4) 자본수익
+[1X21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5) SIT
+자본수익
+[1X21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6) 생산세
+[1X21]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7) 관세
+[1X21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(8) 수입
+[1X21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(9) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(11) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(12) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(13) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(14) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(15) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(16) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(17) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(18) 임금소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(19) 자본소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(20) 자본소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(21) 자본소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(22) 자본소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(23) 자본소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(24) 자본소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(25) SIT 소득
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(26) 민간
+소비
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(27) 가계저축
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(28) 소득세
+[1X21]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(29) 민간
+소비
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(30) 가계저축
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(31) 소득세
+[1X21]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(32) 민간
+소비
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(33) 가계저축
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(34) 소득세
+[1X21]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(35) 민간
+소비
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(36) 가계저축
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(37) 소득세
+[1X21]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(38) 민간
+소비
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(39) 가계저축
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(40) 소득세
+[1X21]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(41) 기업이전
+[1X1]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(42) 기업저축
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(43) SIT투자
+재원
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(44) 법인세
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(45) 정부
+소비
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(46) 정부저축
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(47) SIT투자
+재원
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(48) 물적
+투자
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(49) 정부부채
+[1X1]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(50) 무역수지
+[1X21]
+균형항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(51) SIT투자
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(52) 간접세
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(53) 법인세
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(54) 소득세
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(55) 관세
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(56) 수출
+[21X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(57) 수출
+[1X1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내생계정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내생 계정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외생 계정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외생계정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +904,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1107,26 +1320,26 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="7" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="5" t="s">
@@ -1141,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1165,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1192,10 +1405,10 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1219,7 +1432,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1245,23 +1458,23 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="10" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="1"/>
@@ -1280,13 +1493,13 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="7" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="8"/>
@@ -1307,7 +1520,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1335,7 +1548,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="7" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1358,7 +1571,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="10" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1379,7 +1592,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1417,7 +1630,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="11" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>25</v>
@@ -1429,7 +1642,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1437,7 +1650,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="10" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="1"/>
@@ -1583,18 +1796,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:R18"/>
+      <selection sqref="A1:W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="18" width="13.85546875" customWidth="1"/>
+    <col min="1" max="23" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:24">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="2" t="s">
@@ -1605,80 +1818,100 @@
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13" t="s">
+      <c r="V1" s="13"/>
+      <c r="W1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:24">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" ht="57">
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="1:24" ht="57">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1686,614 +1919,1074 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="I3" s="7" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="5" t="s">
+      <c r="N3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="57">
+    <row r="4" spans="1:24" ht="57">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="5" t="s">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="38">
+    <row r="5" spans="1:24" ht="57">
       <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="57">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="38">
       <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" ht="38">
-      <c r="A7" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="57">
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="38">
-      <c r="A8" s="13"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="38">
+      <c r="A8" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="57">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="38">
       <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="D9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="57">
-      <c r="A10" s="13" t="s">
-        <v>3</v>
-      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="38">
+      <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="D10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="57">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="38">
       <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" ht="57">
-      <c r="A12" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="38">
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="38">
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="38">
       <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="F13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="57">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="57">
       <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="38">
-      <c r="A15" s="13"/>
+      <c r="O14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="U14" s="12"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="57">
+      <c r="A15" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="38">
-      <c r="A16" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="57">
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="57">
-      <c r="A17" s="13"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" ht="57">
+      <c r="A17" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="6" t="s">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="38">
+      <c r="A18" s="13"/>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="57">
+      <c r="A19" s="13"/>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="38">
+      <c r="A20" s="13"/>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="38">
+      <c r="A21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="57">
+      <c r="A22" s="13"/>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="57">
-      <c r="A18" s="13" t="s">
+    <row r="23" spans="1:23" ht="57">
+      <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="5" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="G23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="N23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="O23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="P23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="R23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="S23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="U23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="V23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="F19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="F20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="F21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="F22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="F23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="F24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="F25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="F26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="F27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="F28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="F29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="F30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="F31" s="3"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="F32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="6:12">
-      <c r="F33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="6:12">
-      <c r="F34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="6:12">
-      <c r="F35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="6:12">
-      <c r="F36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="6:12">
-      <c r="F37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="6:12">
-      <c r="F38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="6:12">
-      <c r="F39" s="3"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="6:12">
-      <c r="F40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="G24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="G25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="G26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="G27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="G28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="G29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="G30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="G31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="G32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="7:17">
+      <c r="G33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="7:17">
+      <c r="G34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="7:17">
+      <c r="G35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="7:17">
+      <c r="G36" s="3"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="7:17">
+      <c r="G37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="7:17">
+      <c r="G38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="7:17">
+      <c r="G39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="7:17">
+      <c r="G40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="7:17">
+      <c r="G41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="7:17">
+      <c r="G42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="7:17">
+      <c r="G43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="7:17">
+      <c r="G44" s="3"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="7:17">
+      <c r="G45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C7C62F-A47C-2F40-B3AE-9E8E87F4EA06}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="A1:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="J15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C3:E5"/>
+    <mergeCell ref="F3:H5"/>
+    <mergeCell ref="C6:E8"/>
+    <mergeCell ref="F6:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>